--- a/src/com/qa/testdata/practicedata.xlsx
+++ b/src/com/qa/testdata/practicedata.xlsx
@@ -5,11 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="STO" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="LTTS" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="STO2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="STO3" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Blogger_Author" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="282">
   <si>
     <t xml:space="preserve">FullName</t>
   </si>
@@ -207,6 +213,666 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.hcltech.com/it-infrastructure-management/governance-risk-and-compliance-consulting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/software-defined-infrastructure-sdi-why-cio-still-relevant?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/rise-cloud?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/robotics-driving-responsiveness-capital-market-landscape?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/nutanix-web-scale-infrastructure-any-scale?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/oracle-cloud-migration-processes-and-challenges?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/how-technology-changing-face-bpo-industry?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/two-tier-erp-adoption-hub-and-spoke-microsoft-dynamics-365?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/cloud-native-enterprise-real?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/cloud-native-adoption-key-principles-should-drive-your-strategy?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/serverless-computing-next-frontier?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/you-have-taken-cloud-first-decision?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/service-level-agreements-cloud-immaterial?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/software-defined-infrastructure-sets-wave-transformation?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/future-it-infrastructure-looks-electrical-socket?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/why-devops-important-banks-II?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/edge-computing-upcoming-wave?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hcltech.com/blogs/sap-customer-experience-and-commerce-part-2-pathway-cloud?amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sto-dev.innoraft-sites.com/magazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sto-dev.innoraft-sites.com/events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sto-dev.innoraft-sites.com/straight-talk-nordic-chapter-iii-building-21st-century-enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sto-dev.innoraft-sites.com/digitalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sto-dev.innoraft-sites.com/bloggers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sto-dev.innoraft-sites.com/career-move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sto-dev.innoraft-sites.com/new-appointments-and-career-moves-may-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/engineering-the-change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/industry/industrial-products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/industry/medical-devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/industry/consumer-electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/industry/plant-engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/industry/media-entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/industry/oil-and-gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/industry/semiconductors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/industry/telecommunications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lnttechservices.com/industry/transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linkedin_Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter_Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlogPost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/isaac-sacolick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Author Bio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/john-halamka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/becky-blalock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/bill-schrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/peter-high-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/tom-davenport-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/david-chou-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/ade-mccormack-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/azmi-jafarey-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/ian-cox-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/bob-gourley-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/randy-bean-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/bernard-marr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/don-basile-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/daniel-newman-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/vivek-wadhwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/david-bray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/karl-smith-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/josé-de-la-rubia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/shep-hyken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/dr-ganapathi-p...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/adi-gaskell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/brian-thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/jason-averbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/jason-bloomberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/shelly-palmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/ronald-van-loon-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/dr-lance-eliot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/falon-fatemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/michelle-evans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/richie-etwaru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/quharrison-terry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/heather-wilde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/abid-mustafa-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/mark-settle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/daniel-miessler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/cathy-hackl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/98779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-108453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/98820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/98824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/98826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/98833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/98970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/8934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-25394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/9693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/9694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/9793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/20576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-25708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/20578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/20580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/22988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/22571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-26685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/22615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/22667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/26683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/100547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-100550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/100548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/100549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/9698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-23502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/9699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/9700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/9695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-9697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/9696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/9795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/9796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/26028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-26032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/26030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/100998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-101000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/100999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/110153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-110316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/110314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/98973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-98975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/98974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/1345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-2142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/115276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-115277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/1239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-2143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/85645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-86245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/57229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-57230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/83248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-112797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/3832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-3833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/89572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-89573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/90978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-91219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/115426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-116107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/52739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-52924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/111957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-111958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/39866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-39868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/2579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/2710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/2711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-9797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/20633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/22669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/26034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/28257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-27974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/31457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-48005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/34547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-34261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/37287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-36993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/39677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-39399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/40773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-40774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/42962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-42583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/44230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-42637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/45482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-45483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/47908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-48002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/50300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-50299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/54397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-54398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/56480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-56481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/60787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-60788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/62571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-62572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/64707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-64763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/67525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-67526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/70197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-70198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/73016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-73017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/76086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-76072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/79161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-79162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/81729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-81730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/84804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-84830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/91863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-96338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/98972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/100955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/108213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-82103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/109883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/119210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-119421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://straighttalk.hcltech.com/node/119462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-119473</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -217,7 +883,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -246,8 +912,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +933,24 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -274,6 +963,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -302,7 +998,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,6 +1023,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -412,9 +1121,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.6581632653061" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -508,15 +1217,15 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.1428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="2" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" hidden="false" style="0" width="35.234693877551" collapsed="true"/>
+    <col min="2" max="7" hidden="false" style="0" width="3.23979591836735" collapsed="true"/>
+    <col min="8" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,4 +1742,1773 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col min="1" max="1" hidden="false" style="0" width="62.9081632653061" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col min="1" max="1" hidden="false" style="0" width="43.1989795918367" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col min="1" max="1" hidden="false" style="0" width="29.8316326530612" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col min="1" max="1" hidden="false" style="0" width="36.1785714285714" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="13.3622448979592" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="12.6887755102041" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="7.56122448979592" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col min="1" max="1" hidden="false" style="0" width="35.7704081632653" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="6.20918367346939" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="https://straighttalk.hcltech.com/node/98833"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://straighttalk.hcltech.com/node/98970"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://straighttalk.hcltech.com/node/8934"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://straighttalk.hcltech.com/node/9693"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://straighttalk.hcltech.com/node/9694"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://straighttalk.hcltech.com/node/9793"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://straighttalk.hcltech.com/node/20576"/>
+    <hyperlink ref="A13" r:id="rId8" display="https://straighttalk.hcltech.com/node/20578"/>
+    <hyperlink ref="A14" r:id="rId9" display="https://straighttalk.hcltech.com/node/20580"/>
+    <hyperlink ref="A15" r:id="rId10" display="https://straighttalk.hcltech.com/node/22988"/>
+    <hyperlink ref="A16" r:id="rId11" display="https://straighttalk.hcltech.com/node/22571"/>
+    <hyperlink ref="A17" r:id="rId12" display="https://straighttalk.hcltech.com/node/22615"/>
+    <hyperlink ref="A18" r:id="rId13" display="https://straighttalk.hcltech.com/node/22667"/>
+    <hyperlink ref="A19" r:id="rId14" display="https://straighttalk.hcltech.com/node/26683"/>
+    <hyperlink ref="A20" r:id="rId15" display="https://straighttalk.hcltech.com/node/100547"/>
+    <hyperlink ref="A21" r:id="rId16" display="https://straighttalk.hcltech.com/node/100548"/>
+    <hyperlink ref="A22" r:id="rId17" display="https://straighttalk.hcltech.com/node/100549"/>
+    <hyperlink ref="A23" r:id="rId18" display="https://straighttalk.hcltech.com/node/9698"/>
+    <hyperlink ref="A24" r:id="rId19" display="https://straighttalk.hcltech.com/node/9699"/>
+    <hyperlink ref="A25" r:id="rId20" display="https://straighttalk.hcltech.com/node/9700"/>
+    <hyperlink ref="A26" r:id="rId21" display="https://straighttalk.hcltech.com/node/9695"/>
+    <hyperlink ref="A27" r:id="rId22" display="https://straighttalk.hcltech.com/node/9696"/>
+    <hyperlink ref="A28" r:id="rId23" display="https://straighttalk.hcltech.com/node/9795"/>
+    <hyperlink ref="A29" r:id="rId24" display="https://straighttalk.hcltech.com/node/9796"/>
+    <hyperlink ref="A30" r:id="rId25" display="https://straighttalk.hcltech.com/node/26028"/>
+    <hyperlink ref="A31" r:id="rId26" display="https://straighttalk.hcltech.com/node/26030"/>
+    <hyperlink ref="A32" r:id="rId27" display="https://straighttalk.hcltech.com/node/100998"/>
+    <hyperlink ref="A33" r:id="rId28" display="https://straighttalk.hcltech.com/node/100999"/>
+    <hyperlink ref="A34" r:id="rId29" display="https://straighttalk.hcltech.com/node/110153"/>
+    <hyperlink ref="A35" r:id="rId30" display="https://straighttalk.hcltech.com/node/110314"/>
+    <hyperlink ref="A36" r:id="rId31" display="https://straighttalk.hcltech.com/node/98973"/>
+    <hyperlink ref="A37" r:id="rId32" display="https://straighttalk.hcltech.com/node/98974"/>
+    <hyperlink ref="A38" r:id="rId33" display="https://straighttalk.hcltech.com/node/1345"/>
+    <hyperlink ref="A39" r:id="rId34" display="https://straighttalk.hcltech.com/node/115276"/>
+    <hyperlink ref="A40" r:id="rId35" display="https://straighttalk.hcltech.com/node/1239"/>
+    <hyperlink ref="A41" r:id="rId36" display="https://straighttalk.hcltech.com/node/85645"/>
+    <hyperlink ref="A42" r:id="rId37" display="https://straighttalk.hcltech.com/node/57229"/>
+    <hyperlink ref="A43" r:id="rId38" display="https://straighttalk.hcltech.com/node/83248"/>
+    <hyperlink ref="A44" r:id="rId39" display="https://straighttalk.hcltech.com/node/3832"/>
+    <hyperlink ref="A45" r:id="rId40" display="https://straighttalk.hcltech.com/node/89572"/>
+    <hyperlink ref="A46" r:id="rId41" display="https://straighttalk.hcltech.com/node/90978"/>
+    <hyperlink ref="A47" r:id="rId42" display="https://straighttalk.hcltech.com/node/115426"/>
+    <hyperlink ref="A48" r:id="rId43" display="https://straighttalk.hcltech.com/node/52739"/>
+    <hyperlink ref="A49" r:id="rId44" display="https://straighttalk.hcltech.com/node/111957"/>
+    <hyperlink ref="A50" r:id="rId45" display="https://straighttalk.hcltech.com/node/39866"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col min="1" max="1" hidden="false" style="0" width="30.8418367346939" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="6.2578125" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s" s="9">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://straighttalk.hcltech.com/node/833"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://straighttalk.hcltech.com/node/2579"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://straighttalk.hcltech.com/node/2710"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://straighttalk.hcltech.com/node/2711"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://straighttalk.hcltech.com/node/20633"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://straighttalk.hcltech.com/node/22669"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://straighttalk.hcltech.com/node/26034"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://straighttalk.hcltech.com/node/28257"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://straighttalk.hcltech.com/node/31457"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://straighttalk.hcltech.com/node/34547"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://straighttalk.hcltech.com/node/37287"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://straighttalk.hcltech.com/node/39677"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://straighttalk.hcltech.com/node/40773"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://straighttalk.hcltech.com/node/42962"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://straighttalk.hcltech.com/node/44230"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://straighttalk.hcltech.com/node/45482"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://straighttalk.hcltech.com/node/47908"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://straighttalk.hcltech.com/node/50300"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://straighttalk.hcltech.com/node/54397"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://straighttalk.hcltech.com/node/56480"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://straighttalk.hcltech.com/node/60787"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://straighttalk.hcltech.com/node/62571"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://straighttalk.hcltech.com/node/64707"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://straighttalk.hcltech.com/node/67525"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://straighttalk.hcltech.com/node/70197"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://straighttalk.hcltech.com/node/73016"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://straighttalk.hcltech.com/node/76086"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://straighttalk.hcltech.com/node/79161"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://straighttalk.hcltech.com/node/81729"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://straighttalk.hcltech.com/node/84804"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://straighttalk.hcltech.com/node/91863"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://straighttalk.hcltech.com/node/98972"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://straighttalk.hcltech.com/node/100955"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://straighttalk.hcltech.com/node/108213"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://straighttalk.hcltech.com/node/109883"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://straighttalk.hcltech.com/node/119210"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://straighttalk.hcltech.com/node/119462"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>